--- a/src/main/resources/static/assets/files/안전성추정데이터입력.xlsx
+++ b/src/main/resources/static/assets/files/안전성추정데이터입력.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snw/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snw/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F76CD6A-F434-304F-882A-F7E5C920DDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A49AB6D-C9B9-7A40-BA8E-1DCCF9E34B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19440" xr2:uid="{979C466E-60D4-2A4A-9AB6-941FA5AA90D9}"/>
   </bookViews>
@@ -41,11 +41,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공용 내하율 (%)</t>
+    <t>계측일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계측일</t>
+    <t>공용 내하율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +437,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1"/>
@@ -447,13 +447,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
